--- a/SM1_individuals_measurements.xlsx
+++ b/SM1_individuals_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd8842240deb54/Doutorado/Tartarugas/Manuscrito/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd8842240deb54/Doutorado/Tartarugas/Manuscrito_turtlesBibs/Trenches_chelonians_railways/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{CD9AB94B-69F0-4A11-AD1D-1949CEB1382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9744E294-ADF0-449D-97AF-95169DB8FA71}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{CD9AB94B-69F0-4A11-AD1D-1949CEB1382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF69FF5-2B6F-8446-BB1D-0E0F924E9F1F}"/>
   <bookViews>
-    <workbookView xWindow="25335" yWindow="-210" windowWidth="13365" windowHeight="15135" xr2:uid="{B04DFCCC-61B7-4CF8-B822-AAFB7412B06C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28040" windowHeight="18360" xr2:uid="{B04DFCCC-61B7-4CF8-B822-AAFB7412B06C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>J8</t>
   </si>
@@ -164,20 +164,86 @@
     <t>tortoise</t>
   </si>
   <si>
-    <t>carapace lenght</t>
-  </si>
-  <si>
-    <t>carapace height</t>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>carapace_height</t>
+  </si>
+  <si>
+    <t>carapace_length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,19 +614,19 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" style="2"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2"/>
-    <col min="5" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="12.85546875" style="2"/>
+    <col min="1" max="2" width="12.83203125" style="2"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="2"/>
+    <col min="5" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -568,21 +634,21 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>25.8</v>
@@ -594,12 +660,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>27</v>
@@ -611,12 +677,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>24.5</v>
@@ -628,12 +694,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
@@ -645,12 +711,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="2">
         <v>26</v>
@@ -662,12 +728,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2">
-        <v>6</v>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>22.5</v>
@@ -679,12 +745,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2">
-        <v>6</v>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>26.5</v>
@@ -696,12 +762,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2">
-        <v>7</v>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>30</v>
@@ -713,12 +779,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2">
-        <v>9</v>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>26</v>
@@ -730,12 +796,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2">
-        <v>10</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>18</v>
@@ -747,12 +813,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2">
-        <v>11</v>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="2">
         <v>25.5</v>
@@ -764,12 +830,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2">
-        <v>12</v>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="2">
         <v>21</v>
@@ -781,12 +847,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -798,12 +864,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2">
-        <v>14</v>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="2">
         <v>16.5</v>
@@ -815,12 +881,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2">
-        <v>15</v>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>18.5</v>
@@ -832,12 +898,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2">
-        <v>16</v>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C17" s="2">
         <v>23</v>
@@ -849,12 +915,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2">
-        <v>17</v>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="2">
         <v>25</v>
@@ -866,12 +932,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="2">
         <v>29</v>
@@ -883,12 +949,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2">
-        <v>19</v>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="2">
         <v>25.5</v>
@@ -900,12 +966,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2">
-        <v>20</v>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C21" s="2">
         <v>22</v>
@@ -917,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -934,7 +1000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -951,7 +1017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -968,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -985,7 +1051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1002,7 +1068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1019,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -1104,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -1121,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1138,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -1155,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1172,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1240,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1257,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1291,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -1308,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1325,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -1342,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -1393,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
@@ -1410,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -1427,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -1444,7 +1510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
@@ -1461,7 +1527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -1478,7 +1544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>41</v>
       </c>
@@ -1495,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -1516,6 +1582,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E54">
     <sortCondition ref="A1:A54"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>